--- a/data/output/FV2504_FV2410/UTILMD/55076.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55076.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="561">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6657" uniqueCount="561">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1839,6 +1839,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U299" totalsRowShown="0">
+  <autoFilter ref="A1:U299"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2128,7 +2158,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16478,5 +16511,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55076.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55076.xlsx
@@ -2696,7 +2696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2719,6 +2719,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2727,6 +2730,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3169,7 +3175,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3533,7 +3539,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3679,7 +3685,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3881,7 +3887,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4135,7 +4141,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4335,7 +4341,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4709,7 +4715,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -5021,7 +5027,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5197,52 +5203,52 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -5427,26 +5433,26 @@
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M46" s="5"/>
@@ -5464,33 +5470,33 @@
       <c r="A47" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M47" s="5"/>
@@ -5508,33 +5514,33 @@
       <c r="A48" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M48" s="5"/>
@@ -5552,31 +5558,31 @@
       <c r="A49" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M49" s="5"/>
@@ -5604,29 +5610,29 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11" t="s">
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -5642,35 +5648,35 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V51" s="11"/>
+      <c r="U51" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -5686,35 +5692,35 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V52" s="11"/>
+      <c r="U52" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -5730,55 +5736,55 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11" t="s">
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U53" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V53" s="11"/>
+      <c r="U53" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>426</v>
       </c>
       <c r="K54" s="6" t="s">
@@ -5787,23 +5793,23 @@
       <c r="L54" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="5"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5" t="s">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2" t="s">
         <v>426</v>
       </c>
       <c r="V54" s="6" t="s">
@@ -6009,7 +6015,7 @@
         <v>465</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6219,7 +6225,7 @@
         <v>468</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6429,7 +6435,7 @@
         <v>469</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6637,7 +6643,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6837,7 +6843,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7041,7 +7047,7 @@
         <v>465</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7169,52 +7175,52 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P81" s="5"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5" t="s">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V81" s="5"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -7359,7 +7365,7 @@
         <v>471</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7487,52 +7493,52 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="2"/>
       <c r="L87" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N87" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O87" s="5" t="s">
+      <c r="N87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P87" s="5"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V87" s="5"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -7677,7 +7683,7 @@
         <v>473</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7883,7 +7889,7 @@
         <v>465</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -8195,7 +8201,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8321,52 +8327,52 @@
       <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="2"/>
       <c r="F103" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K103" s="5"/>
+      <c r="K103" s="2"/>
       <c r="L103" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N103" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O103" s="5" t="s">
+      <c r="N103" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O103" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P103" s="5"/>
+      <c r="P103" s="2"/>
       <c r="Q103" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -8651,20 +8657,20 @@
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8" t="s">
+      <c r="C109" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M109" s="5"/>
@@ -8682,27 +8688,27 @@
       <c r="A110" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8" t="s">
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="9" t="s">
+      <c r="K110" s="9"/>
+      <c r="L110" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M110" s="5"/>
@@ -8720,33 +8726,33 @@
       <c r="A111" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="C111" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="9" t="s">
+      <c r="J111" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M111" s="5"/>
@@ -8764,33 +8770,33 @@
       <c r="A112" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D112" s="8" t="s">
+      <c r="C112" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8" t="s">
+      <c r="H112" s="9"/>
+      <c r="I112" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="J112" s="8" t="s">
+      <c r="J112" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="K112" s="8"/>
-      <c r="L112" s="9" t="s">
+      <c r="K112" s="9"/>
+      <c r="L112" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M112" s="5"/>
@@ -8808,31 +8814,31 @@
       <c r="A113" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="8" t="s">
+      <c r="C113" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8" t="s">
+      <c r="F113" s="9"/>
+      <c r="G113" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8" t="s">
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="J113" s="8" t="s">
+      <c r="J113" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="9" t="s">
+      <c r="K113" s="9"/>
+      <c r="L113" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M113" s="5"/>
@@ -8850,31 +8856,31 @@
       <c r="A114" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D114" s="8" t="s">
+      <c r="C114" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8" t="s">
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J114" s="8" t="s">
+      <c r="J114" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M114" s="5"/>
@@ -8892,33 +8898,33 @@
       <c r="A115" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="C115" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8" t="s">
+      <c r="F115" s="9"/>
+      <c r="G115" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8" t="s">
+      <c r="H115" s="9"/>
+      <c r="I115" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="L115" s="9" t="s">
+      <c r="L115" s="10" t="s">
         <v>501</v>
       </c>
       <c r="M115" s="5"/>
@@ -8946,25 +8952,25 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="N116" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11"/>
-      <c r="U116" s="11" t="s">
+      <c r="N116" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="V116" s="11"/>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -8980,29 +8986,29 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="N117" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O117" s="11" t="s">
+      <c r="N117" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O117" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11" t="s">
+      <c r="P117" s="13"/>
+      <c r="Q117" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11"/>
-      <c r="U117" s="11" t="s">
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13"/>
+      <c r="U117" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="V117" s="11"/>
+      <c r="V117" s="13"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -9018,35 +9024,35 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-      <c r="L118" s="10" t="s">
+      <c r="L118" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M118" s="11" t="s">
+      <c r="M118" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="N118" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O118" s="11" t="s">
+      <c r="N118" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O118" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P118" s="11" t="s">
+      <c r="P118" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q118" s="11" t="s">
+      <c r="Q118" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="R118" s="11" t="s">
+      <c r="R118" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11" t="s">
+      <c r="S118" s="13"/>
+      <c r="T118" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="U118" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V118" s="11"/>
+      <c r="U118" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="V118" s="13"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
@@ -9062,35 +9068,35 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="N119" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O119" s="11" t="s">
+      <c r="N119" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O119" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="Q119" s="11" t="s">
+      <c r="Q119" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="R119" s="11" t="s">
+      <c r="R119" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11" t="s">
+      <c r="S119" s="13"/>
+      <c r="T119" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="U119" s="11" t="s">
+      <c r="U119" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="V119" s="11"/>
+      <c r="V119" s="13"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -9106,33 +9112,33 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="N120" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O120" s="11" t="s">
+      <c r="N120" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O120" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P120" s="11" t="s">
+      <c r="P120" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11" t="s">
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11" t="s">
+      <c r="S120" s="13"/>
+      <c r="T120" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="U120" s="11" t="s">
+      <c r="U120" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="V120" s="11"/>
+      <c r="V120" s="13"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -9148,33 +9154,33 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="N121" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O121" s="11" t="s">
+      <c r="N121" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O121" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11" t="s">
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11" t="s">
+      <c r="S121" s="13"/>
+      <c r="T121" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="U121" s="11" t="s">
+      <c r="U121" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="V121" s="11"/>
+      <c r="V121" s="13"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -9190,53 +9196,53 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="N122" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O122" s="11" t="s">
+      <c r="N122" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O122" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P122" s="11" t="s">
+      <c r="P122" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11" t="s">
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11" t="s">
+      <c r="S122" s="13"/>
+      <c r="T122" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="U122" s="11" t="s">
+      <c r="U122" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="V122" s="11" t="s">
+      <c r="V122" s="13" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="C123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>436</v>
       </c>
       <c r="K123" s="6" t="s">
@@ -9245,19 +9251,19 @@
       <c r="L123" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="M123" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="N123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>436</v>
       </c>
       <c r="V123" s="6" t="s">
@@ -9571,7 +9577,7 @@
         <v>471</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9699,52 +9705,52 @@
       <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K132" s="5"/>
+      <c r="K132" s="2"/>
       <c r="L132" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P132" s="5"/>
+      <c r="P132" s="2"/>
       <c r="Q132" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -9867,52 +9873,52 @@
       </c>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K135" s="5"/>
+      <c r="K135" s="2"/>
       <c r="L135" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O135" s="5" t="s">
+      <c r="O135" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P135" s="5"/>
+      <c r="P135" s="2"/>
       <c r="Q135" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -10117,7 +10123,7 @@
         <v>477</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10245,52 +10251,52 @@
       <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K142" s="5"/>
+      <c r="K142" s="2"/>
       <c r="L142" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O142" s="5" t="s">
+      <c r="O142" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P142" s="5"/>
+      <c r="P142" s="2"/>
       <c r="Q142" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V142" s="5"/>
+      <c r="V142" s="2"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -10413,22 +10419,22 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>439</v>
       </c>
       <c r="K145" s="6" t="s">
@@ -10437,19 +10443,19 @@
       <c r="L145" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M145" s="5" t="s">
+      <c r="M145" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N145" s="5" t="s">
+      <c r="N145" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>439</v>
       </c>
       <c r="V145" s="6" t="s">
@@ -10705,7 +10711,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10831,52 +10837,52 @@
       <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D153" s="5" t="s">
+      <c r="C153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K153" s="5"/>
+      <c r="K153" s="2"/>
       <c r="L153" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N153" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O153" s="5" t="s">
+      <c r="N153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O153" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P153" s="5"/>
+      <c r="P153" s="2"/>
       <c r="Q153" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V153" s="5"/>
+      <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -11015,7 +11021,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11217,7 +11223,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -11479,7 +11485,7 @@
         <v>480</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11607,52 +11613,52 @@
       <c r="V167" s="5"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K168" s="5"/>
+      <c r="K168" s="2"/>
       <c r="L168" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M168" s="5" t="s">
+      <c r="M168" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O168" s="5" t="s">
+      <c r="O168" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P168" s="5"/>
+      <c r="P168" s="2"/>
       <c r="Q168" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -11775,52 +11781,52 @@
       </c>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K171" s="5"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M171" s="5" t="s">
+      <c r="M171" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O171" s="5" t="s">
+      <c r="O171" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P171" s="5"/>
+      <c r="P171" s="2"/>
       <c r="Q171" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -12025,7 +12031,7 @@
         <v>482</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -12153,52 +12159,52 @@
       <c r="V177" s="5"/>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E178" s="5"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5" t="s">
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K178" s="5"/>
+      <c r="K178" s="2"/>
       <c r="L178" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M178" s="5" t="s">
+      <c r="M178" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O178" s="5" t="s">
+      <c r="O178" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P178" s="5"/>
+      <c r="P178" s="2"/>
       <c r="Q178" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5" t="s">
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V178" s="5"/>
+      <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="5" t="s">
@@ -12321,26 +12327,26 @@
       </c>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>444</v>
       </c>
       <c r="K181" s="6" t="s">
@@ -12349,23 +12355,23 @@
       <c r="L181" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M181" s="5" t="s">
+      <c r="M181" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O181" s="5" t="s">
+      <c r="O181" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P181" s="5"/>
+      <c r="P181" s="2"/>
       <c r="Q181" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>444</v>
       </c>
       <c r="V181" s="6" t="s">
@@ -12509,7 +12515,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13067,52 +13073,52 @@
       <c r="V194" s="5"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K195" s="5"/>
+      <c r="K195" s="2"/>
       <c r="L195" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M195" s="5" t="s">
+      <c r="M195" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N195" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O195" s="5" t="s">
+      <c r="N195" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O195" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P195" s="5"/>
+      <c r="P195" s="2"/>
       <c r="Q195" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -13231,54 +13237,54 @@
       <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D198" s="5" t="s">
+      <c r="C198" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5" t="s">
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K198" s="5" t="s">
+      <c r="K198" s="2" t="s">
         <v>484</v>
       </c>
       <c r="L198" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N198" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O198" s="5" t="s">
+      <c r="N198" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O198" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P198" s="5"/>
+      <c r="P198" s="2"/>
       <c r="Q198" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5" t="s">
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="V198" s="5" t="s">
+      <c r="V198" s="2" t="s">
         <v>484</v>
       </c>
     </row>
@@ -13451,52 +13457,52 @@
       <c r="V201" s="5"/>
     </row>
     <row r="202" spans="1:22">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="C202" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E202" s="5"/>
+      <c r="E202" s="2"/>
       <c r="F202" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5" t="s">
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K202" s="5"/>
+      <c r="K202" s="2"/>
       <c r="L202" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M202" s="5" t="s">
+      <c r="M202" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N202" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O202" s="5" t="s">
+      <c r="N202" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O202" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P202" s="5"/>
+      <c r="P202" s="2"/>
       <c r="Q202" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
-      <c r="U202" s="5" t="s">
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V202" s="5"/>
+      <c r="V202" s="2"/>
     </row>
     <row r="203" spans="1:22">
       <c r="A203" s="5" t="s">
@@ -13635,7 +13641,7 @@
         <v>485</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13763,54 +13769,54 @@
       <c r="V207" s="5"/>
     </row>
     <row r="208" spans="1:22">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E208" s="5"/>
+      <c r="E208" s="2"/>
       <c r="F208" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5" t="s">
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K208" s="5" t="s">
+      <c r="K208" s="2" t="s">
         <v>486</v>
       </c>
       <c r="L208" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M208" s="5" t="s">
+      <c r="M208" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N208" s="5" t="s">
+      <c r="N208" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O208" s="5" t="s">
+      <c r="O208" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P208" s="5"/>
+      <c r="P208" s="2"/>
       <c r="Q208" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5" t="s">
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="V208" s="5" t="s">
+      <c r="V208" s="2" t="s">
         <v>486</v>
       </c>
     </row>
@@ -13989,52 +13995,52 @@
       <c r="V211" s="5"/>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E212" s="5"/>
+      <c r="E212" s="2"/>
       <c r="F212" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5" t="s">
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K212" s="5"/>
+      <c r="K212" s="2"/>
       <c r="L212" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M212" s="5" t="s">
+      <c r="M212" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N212" s="5" t="s">
+      <c r="N212" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O212" s="5" t="s">
+      <c r="O212" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P212" s="5"/>
+      <c r="P212" s="2"/>
       <c r="Q212" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
-      <c r="U212" s="5" t="s">
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V212" s="5"/>
+      <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
       <c r="A213" s="5" t="s">
@@ -14157,26 +14163,26 @@
       </c>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E215" s="5"/>
+      <c r="E215" s="2"/>
       <c r="F215" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="5" t="s">
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2" t="s">
         <v>449</v>
       </c>
       <c r="K215" s="6" t="s">
@@ -14185,23 +14191,23 @@
       <c r="L215" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M215" s="5" t="s">
+      <c r="M215" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N215" s="5" t="s">
+      <c r="N215" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O215" s="5" t="s">
+      <c r="O215" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P215" s="5"/>
+      <c r="P215" s="2"/>
       <c r="Q215" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
-      <c r="U215" s="5" t="s">
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2" t="s">
         <v>449</v>
       </c>
       <c r="V215" s="6" t="s">
@@ -14325,52 +14331,52 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E218" s="5"/>
+      <c r="E218" s="2"/>
       <c r="F218" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K218" s="5"/>
+      <c r="K218" s="2"/>
       <c r="L218" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M218" s="5" t="s">
+      <c r="M218" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="N218" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O218" s="5" t="s">
+      <c r="O218" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P218" s="5"/>
+      <c r="P218" s="2"/>
       <c r="Q218" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V218" s="5"/>
+      <c r="V218" s="2"/>
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="5" t="s">
@@ -14553,22 +14559,22 @@
       <c r="V221" s="5"/>
     </row>
     <row r="222" spans="1:22">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5" t="s">
+      <c r="C222" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2" t="s">
         <v>451</v>
       </c>
       <c r="K222" s="6" t="s">
@@ -14577,19 +14583,19 @@
       <c r="L222" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M222" s="5" t="s">
+      <c r="M222" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N222" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O222" s="5"/>
-      <c r="P222" s="5"/>
-      <c r="Q222" s="5"/>
-      <c r="R222" s="5"/>
-      <c r="S222" s="5"/>
-      <c r="T222" s="5"/>
-      <c r="U222" s="5" t="s">
+      <c r="N222" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="2" t="s">
         <v>451</v>
       </c>
       <c r="V222" s="6" t="s">
@@ -14997,7 +15003,7 @@
         <v>491</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15367,7 +15373,7 @@
         <v>492</v>
       </c>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -15495,52 +15501,52 @@
       <c r="V239" s="5"/>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E240" s="5"/>
+      <c r="E240" s="2"/>
       <c r="F240" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5" t="s">
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K240" s="5"/>
+      <c r="K240" s="2"/>
       <c r="L240" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M240" s="5" t="s">
+      <c r="M240" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N240" s="5" t="s">
+      <c r="N240" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O240" s="5" t="s">
+      <c r="O240" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P240" s="5"/>
+      <c r="P240" s="2"/>
       <c r="Q240" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5" t="s">
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V240" s="5"/>
+      <c r="V240" s="2"/>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="5" t="s">
@@ -15679,7 +15685,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15805,54 +15811,54 @@
       <c r="V245" s="5"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D246" s="5" t="s">
+      <c r="C246" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E246" s="5"/>
+      <c r="E246" s="2"/>
       <c r="F246" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5" t="s">
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K246" s="5" t="s">
+      <c r="K246" s="2" t="s">
         <v>493</v>
       </c>
       <c r="L246" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M246" s="5" t="s">
+      <c r="M246" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N246" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O246" s="5" t="s">
+      <c r="N246" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O246" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P246" s="5"/>
+      <c r="P246" s="2"/>
       <c r="Q246" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
-      <c r="U246" s="5" t="s">
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="V246" s="5" t="s">
+      <c r="V246" s="2" t="s">
         <v>493</v>
       </c>
     </row>
@@ -15973,52 +15979,52 @@
       <c r="V248" s="5"/>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E249" s="5"/>
+      <c r="E249" s="2"/>
       <c r="F249" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5" t="s">
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K249" s="5"/>
+      <c r="K249" s="2"/>
       <c r="L249" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M249" s="5" t="s">
+      <c r="M249" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N249" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O249" s="5" t="s">
+      <c r="N249" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O249" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P249" s="5"/>
+      <c r="P249" s="2"/>
       <c r="Q249" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5" t="s">
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V249" s="5"/>
+      <c r="V249" s="2"/>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="5" t="s">
@@ -16325,7 +16331,7 @@
         <v>492</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -16599,52 +16605,52 @@
       <c r="V260" s="5"/>
     </row>
     <row r="261" spans="1:22">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D261" s="5" t="s">
+      <c r="C261" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E261" s="5"/>
+      <c r="E261" s="2"/>
       <c r="F261" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G261" s="5"/>
-      <c r="H261" s="5"/>
-      <c r="I261" s="5"/>
-      <c r="J261" s="5" t="s">
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K261" s="5"/>
+      <c r="K261" s="2"/>
       <c r="L261" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M261" s="5" t="s">
+      <c r="M261" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N261" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O261" s="5" t="s">
+      <c r="N261" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O261" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P261" s="5"/>
+      <c r="P261" s="2"/>
       <c r="Q261" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="R261" s="5"/>
-      <c r="S261" s="5"/>
-      <c r="T261" s="5"/>
-      <c r="U261" s="5" t="s">
+      <c r="R261" s="2"/>
+      <c r="S261" s="2"/>
+      <c r="T261" s="2"/>
+      <c r="U261" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V261" s="5"/>
+      <c r="V261" s="2"/>
     </row>
     <row r="262" spans="1:22">
       <c r="A262" s="5" t="s">
@@ -16789,7 +16795,7 @@
         <v>496</v>
       </c>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16917,52 +16923,52 @@
       <c r="V266" s="5"/>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D267" s="5" t="s">
+      <c r="D267" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E267" s="5"/>
+      <c r="E267" s="2"/>
       <c r="F267" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5" t="s">
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K267" s="5"/>
+      <c r="K267" s="2"/>
       <c r="L267" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M267" s="5" t="s">
+      <c r="M267" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N267" s="5" t="s">
+      <c r="N267" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O267" s="5" t="s">
+      <c r="O267" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P267" s="5"/>
+      <c r="P267" s="2"/>
       <c r="Q267" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="R267" s="5"/>
-      <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
-      <c r="U267" s="5" t="s">
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V267" s="5"/>
+      <c r="V267" s="2"/>
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="5" t="s">
@@ -17081,52 +17087,52 @@
       <c r="V269" s="5"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D270" s="5" t="s">
+      <c r="D270" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E270" s="5"/>
+      <c r="E270" s="2"/>
       <c r="F270" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G270" s="5"/>
-      <c r="H270" s="5"/>
-      <c r="I270" s="5"/>
-      <c r="J270" s="5" t="s">
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K270" s="5"/>
+      <c r="K270" s="2"/>
       <c r="L270" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M270" s="5" t="s">
+      <c r="M270" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N270" s="5" t="s">
+      <c r="N270" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O270" s="5" t="s">
+      <c r="O270" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P270" s="5"/>
+      <c r="P270" s="2"/>
       <c r="Q270" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="R270" s="5"/>
-      <c r="S270" s="5"/>
-      <c r="T270" s="5"/>
-      <c r="U270" s="5" t="s">
+      <c r="R270" s="2"/>
+      <c r="S270" s="2"/>
+      <c r="T270" s="2"/>
+      <c r="U270" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V270" s="5"/>
+      <c r="V270" s="2"/>
     </row>
     <row r="271" spans="1:22">
       <c r="A271" s="5" t="s">
@@ -17269,7 +17275,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -17395,52 +17401,52 @@
       <c r="V275" s="5"/>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D276" s="5" t="s">
+      <c r="C276" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E276" s="5"/>
+      <c r="E276" s="2"/>
       <c r="F276" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
-      <c r="I276" s="5"/>
-      <c r="J276" s="5" t="s">
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K276" s="5"/>
+      <c r="K276" s="2"/>
       <c r="L276" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M276" s="5" t="s">
+      <c r="M276" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N276" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O276" s="5" t="s">
+      <c r="N276" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O276" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P276" s="5"/>
+      <c r="P276" s="2"/>
       <c r="Q276" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="R276" s="5"/>
-      <c r="S276" s="5"/>
-      <c r="T276" s="5"/>
-      <c r="U276" s="5" t="s">
+      <c r="R276" s="2"/>
+      <c r="S276" s="2"/>
+      <c r="T276" s="2"/>
+      <c r="U276" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V276" s="5"/>
+      <c r="V276" s="2"/>
     </row>
     <row r="277" spans="1:22">
       <c r="A277" s="5" t="s">
@@ -17585,7 +17591,7 @@
         <v>497</v>
       </c>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -17883,52 +17889,52 @@
       <c r="V284" s="5"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C285" s="5" t="s">
+      <c r="C285" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D285" s="5" t="s">
+      <c r="D285" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E285" s="5"/>
+      <c r="E285" s="2"/>
       <c r="F285" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="5"/>
-      <c r="J285" s="5" t="s">
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K285" s="5"/>
+      <c r="K285" s="2"/>
       <c r="L285" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M285" s="5" t="s">
+      <c r="M285" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N285" s="5" t="s">
+      <c r="N285" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O285" s="5" t="s">
+      <c r="O285" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P285" s="5"/>
+      <c r="P285" s="2"/>
       <c r="Q285" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="R285" s="5"/>
-      <c r="S285" s="5"/>
-      <c r="T285" s="5"/>
-      <c r="U285" s="5" t="s">
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V285" s="5"/>
+      <c r="V285" s="2"/>
     </row>
     <row r="286" spans="1:22">
       <c r="A286" s="5" t="s">
@@ -18127,7 +18133,7 @@
         <v>498</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -18539,48 +18545,48 @@
       <c r="V296" s="5"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C297" s="5"/>
-      <c r="D297" s="5" t="s">
+      <c r="C297" s="2"/>
+      <c r="D297" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E297" s="5"/>
+      <c r="E297" s="2"/>
       <c r="F297" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G297" s="5"/>
-      <c r="H297" s="5"/>
-      <c r="I297" s="5"/>
-      <c r="J297" s="5" t="s">
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K297" s="5"/>
+      <c r="K297" s="2"/>
       <c r="L297" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M297" s="5" t="s">
+      <c r="M297" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N297" s="5"/>
-      <c r="O297" s="5" t="s">
+      <c r="N297" s="2"/>
+      <c r="O297" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P297" s="5"/>
+      <c r="P297" s="2"/>
       <c r="Q297" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="R297" s="5"/>
-      <c r="S297" s="5"/>
-      <c r="T297" s="5"/>
-      <c r="U297" s="5" t="s">
+      <c r="R297" s="2"/>
+      <c r="S297" s="2"/>
+      <c r="T297" s="2"/>
+      <c r="U297" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="V297" s="5"/>
+      <c r="V297" s="2"/>
     </row>
     <row r="298" spans="1:22">
       <c r="A298" s="5" t="s">
